--- a/MedicalLink/Templates/BC_SuDungThuoc.xlsx
+++ b/MedicalLink/Templates/BC_SuDungThuoc.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AX$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$BK$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
   <si>
     <t>STT</t>
   </si>
@@ -47,15 +47,9 @@
     <t>SỞ Y TẾ HẢI PHÒNG</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].PATIENTNAME</t>
-  </si>
-  <si>
     <t>BÁO CÁO SỬ DỤNG THUỐC</t>
   </si>
   <si>
-    <t>&amp;=[DATA].MEDICINECODE - &amp;=[DATA].MEDICINENAME</t>
-  </si>
-  <si>
     <t>Tên khoa</t>
   </si>
   <si>
@@ -249,6 +243,57 @@
   </si>
   <si>
     <t>&amp;=[DATA1].SL_TONG_12</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DEPARTMENTGROUPNAME</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].MEDICINECODE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].MEDICINENAME</t>
+  </si>
+  <si>
+    <t>Tổng cộng thành tiền</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONGTIEN_1</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONGTIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONGTIEN_12</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONGTIEN_11</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONGTIEN_10</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONGTIEN_9</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONGTIEN_8</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONGTIEN_7</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONGTIEN_6</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONGTIEN_5</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONGTIEN_4</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONGTIEN_3</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONGTIEN_2</t>
   </si>
 </sst>
 </file>
@@ -258,7 +303,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -304,7 +349,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,8 +362,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -426,12 +477,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -456,63 +533,85 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -801,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX13"/>
+  <dimension ref="A1:BK14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,70 +911,106 @@
     <col min="1" max="1" width="5.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="5" customWidth="1"/>
-    <col min="4" max="6" width="9" style="6" customWidth="1"/>
-    <col min="7" max="11" width="9" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9" style="7" customWidth="1"/>
+    <col min="4" max="5" width="9" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="6" customWidth="1"/>
+    <col min="8" max="11" width="9" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="17" customWidth="1"/>
     <col min="13" max="13" width="9" style="5" customWidth="1"/>
-    <col min="14" max="50" width="9" style="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="17" customWidth="1"/>
+    <col min="18" max="21" width="9" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" style="17" customWidth="1"/>
+    <col min="23" max="26" width="9" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.7109375" style="17" customWidth="1"/>
+    <col min="28" max="31" width="9" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" style="17" customWidth="1"/>
+    <col min="33" max="36" width="9" style="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" style="17" customWidth="1"/>
+    <col min="38" max="41" width="9" style="1" customWidth="1"/>
+    <col min="42" max="42" width="13.7109375" style="17" customWidth="1"/>
+    <col min="43" max="46" width="9" style="1" customWidth="1"/>
+    <col min="47" max="47" width="13.7109375" style="17" customWidth="1"/>
+    <col min="48" max="51" width="9" style="1" customWidth="1"/>
+    <col min="52" max="52" width="13.7109375" style="17" customWidth="1"/>
+    <col min="53" max="56" width="9" style="1" customWidth="1"/>
+    <col min="57" max="57" width="13.7109375" style="17" customWidth="1"/>
+    <col min="58" max="61" width="9" style="1" customWidth="1"/>
+    <col min="62" max="63" width="13.7109375" style="17" customWidth="1"/>
+    <col min="64" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:50" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:63" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
+      <c r="E2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
     </row>
-    <row r="3" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
+    <row r="3" spans="1:63" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="25" t="str">
+        <f>E4&amp;" - "&amp;J4</f>
+        <v>&amp;=[DATA].MEDICINECODE - &amp;=[DATA].MEDICINENAME</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
     </row>
-    <row r="4" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="16" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="J4" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
@@ -883,623 +1018,814 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BE4" s="16"/>
+      <c r="BJ4" s="16"/>
+      <c r="BK4" s="16"/>
     </row>
-    <row r="7" spans="1:50" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="17" t="s">
+    <row r="5" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="V5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+    </row>
+    <row r="8" spans="1:63" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW8" s="20"/>
+      <c r="AX8" s="20"/>
+      <c r="AY8" s="20"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB8" s="20"/>
+      <c r="BC8" s="20"/>
+      <c r="BD8" s="20"/>
+      <c r="BE8" s="21"/>
+      <c r="BF8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG8" s="20"/>
+      <c r="BH8" s="20"/>
+      <c r="BI8" s="20"/>
+      <c r="BJ8" s="21"/>
+      <c r="BK8" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="19" t="s">
+      <c r="E9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA9" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK9" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP9" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU9" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ9" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE9" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ9" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK9" s="36"/>
+    </row>
+    <row r="10" spans="1:63" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="19" t="s">
+      <c r="K10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="19" t="s">
+      <c r="P10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="19" t="s">
+      <c r="T10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="W10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="19" t="s">
+      <c r="Y10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA10" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="19" t="s">
+      <c r="AD10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF10" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="19" t="s">
+      <c r="AI10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK10" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="19" t="s">
+      <c r="AN10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP10" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR10" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="19" t="s">
+      <c r="AS10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU10" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="19" t="s">
+      <c r="AX10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY10" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ10" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA10" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="19" t="s">
+      <c r="BC10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD10" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE10" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="21"/>
+      <c r="BH10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI10" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ10" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK10" s="37" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="29" t="s">
+    <row r="11" spans="1:63" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="S8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="T8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="U8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="V8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="W8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="X8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AW8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX8" s="29" t="s">
-        <v>14</v>
+      <c r="B11" s="23"/>
+      <c r="C11" s="14">
+        <f>SUM(C10:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" ref="D11:BJ11" si="0">SUM(D10:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" ref="F11" si="1">SUM(F10:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" ref="L11" si="2">SUM(L10:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="14">
+        <f t="shared" ref="AA11" si="3">SUM(AA10:AA10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="14">
+        <f t="shared" ref="AK11" si="4">SUM(AK10:AK10)</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="14">
+        <f t="shared" ref="AU11" si="5">SUM(AU10:AU10)</f>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE11" s="14">
+        <f t="shared" ref="BE11" si="6">SUM(BE10:BE10)</f>
+        <v>0</v>
+      </c>
+      <c r="BF11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BK11" s="14">
+        <f t="shared" ref="BK11" si="7">SUM(BK10:BK10)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="V9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="W9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="X9" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z9" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA9" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB9" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC9" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD9" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE9" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF9" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG9" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH9" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI9" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ9" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK9" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL9" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM9" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN9" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO9" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP9" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ9" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR9" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS9" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT9" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU9" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV9" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW9" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX9" s="24" t="s">
-        <v>73</v>
-      </c>
+    <row r="12" spans="1:63" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:63" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
     </row>
-    <row r="10" spans="1:50" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28">
-        <f>SUM(C9:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="28">
-        <f t="shared" ref="D10:AX10" si="0">SUM(D9:D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AN10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AR10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AS10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AV10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AW10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AX10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="1:50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:63" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="AQ7:AT7"/>
-    <mergeCell ref="AU7:AX7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="E4:Q4"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="AA7:AD7"/>
-    <mergeCell ref="AE7:AH7"/>
-    <mergeCell ref="AI7:AL7"/>
+  <mergeCells count="22">
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="O13:R13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E2:T2"/>
+    <mergeCell ref="E3:T3"/>
+    <mergeCell ref="E5:T5"/>
+    <mergeCell ref="BF8:BJ8"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AB8:AF8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="63" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="30" max="14" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/MedicalLink/Templates/BC_SuDungThuoc.xlsx
+++ b/MedicalLink/Templates/BC_SuDungThuoc.xlsx
@@ -32,9 +32,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].THOIGIANBAOCAO</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>&amp;=[DATA1].STT</t>
   </si>
   <si>
-    <t>SỞ Y TẾ HẢI PHÒNG</t>
-  </si>
-  <si>
     <t>BÁO CÁO SỬ DỤNG THUỐC</t>
   </si>
   <si>
@@ -294,6 +288,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].TONGTIEN_2</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
   </si>
 </sst>
 </file>
@@ -556,6 +556,15 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -565,6 +574,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,40 +611,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -903,7 +903,7 @@
   <dimension ref="A1:BK14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,73 +943,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="A1" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:63" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
+      <c r="E2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
     </row>
     <row r="3" spans="1:63" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="25" t="str">
+      <c r="E3" s="36" t="str">
         <f>E4&amp;" - "&amp;J4</f>
         <v>&amp;=[DATA].MEDICINECODE - &amp;=[DATA].MEDICINENAME</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
     </row>
     <row r="4" spans="1:63" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
@@ -1033,24 +1033,24 @@
       <c r="BK4" s="16"/>
     </row>
     <row r="5" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
+      <c r="E5" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
       <c r="V5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AF5" s="1"/>
@@ -1067,477 +1067,477 @@
         <v>0</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="20"/>
-      <c r="AT8" s="20"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="20"/>
-      <c r="AY8" s="20"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB8" s="20"/>
-      <c r="BC8" s="20"/>
-      <c r="BD8" s="20"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG8" s="20"/>
-      <c r="BH8" s="20"/>
-      <c r="BI8" s="20"/>
-      <c r="BJ8" s="21"/>
-      <c r="BK8" s="35" t="s">
-        <v>75</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM8" s="23"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="23"/>
+      <c r="AU8" s="24"/>
+      <c r="AV8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="24"/>
+      <c r="BA8" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB8" s="23"/>
+      <c r="BC8" s="23"/>
+      <c r="BD8" s="23"/>
+      <c r="BE8" s="24"/>
+      <c r="BF8" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG8" s="23"/>
+      <c r="BH8" s="23"/>
+      <c r="BI8" s="23"/>
+      <c r="BJ8" s="24"/>
+      <c r="BK8" s="25" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:63" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="32"/>
       <c r="C9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>75</v>
+      <c r="G9" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="H9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="K9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>75</v>
+      <c r="L9" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="M9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="P9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="33" t="s">
-        <v>75</v>
+      <c r="Q9" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="R9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="U9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="U9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V9" s="33" t="s">
-        <v>75</v>
+      <c r="V9" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="W9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="X9" s="15" t="s">
+      <c r="Z9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Y9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA9" s="33" t="s">
-        <v>75</v>
+      <c r="AA9" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="AB9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AC9" s="15" t="s">
+      <c r="AE9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AD9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF9" s="33" t="s">
-        <v>75</v>
+      <c r="AF9" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="AG9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AH9" s="15" t="s">
+      <c r="AJ9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AI9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK9" s="33" t="s">
-        <v>75</v>
+      <c r="AK9" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="AL9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AM9" s="15" t="s">
+      <c r="AO9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AN9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP9" s="33" t="s">
-        <v>75</v>
+      <c r="AP9" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="AQ9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AR9" s="15" t="s">
+      <c r="AT9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AS9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU9" s="33" t="s">
-        <v>75</v>
+      <c r="AU9" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="AV9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AW9" s="15" t="s">
+      <c r="AY9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AX9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AZ9" s="33" t="s">
-        <v>75</v>
+      <c r="AZ9" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="BA9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BB9" s="15" t="s">
+      <c r="BD9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="BC9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="BE9" s="33" t="s">
-        <v>75</v>
+      <c r="BE9" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="BF9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BG9" s="15" t="s">
+      <c r="BI9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="BH9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="BJ9" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK9" s="36"/>
+      <c r="BJ9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK9" s="26"/>
     </row>
     <row r="10" spans="1:63" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="J10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="34" t="s">
+      <c r="O10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="V10" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="W10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA10" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF10" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK10" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP10" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR10" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU10" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA10" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC10" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD10" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF10" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG10" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BI10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ10" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="R10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="V10" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="W10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA10" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC10" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD10" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF10" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH10" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK10" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM10" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN10" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO10" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP10" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ10" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU10" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV10" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY10" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ10" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA10" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="BB10" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="BC10" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="BD10" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE10" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF10" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="BG10" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="BH10" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI10" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="BJ10" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="BK10" s="37" t="s">
-        <v>77</v>
+      <c r="BK10" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:63" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="23"/>
+      <c r="A11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34"/>
       <c r="C11" s="14">
         <f>SUM(C10:C10)</f>
         <v>0</v>
@@ -1785,25 +1785,16 @@
     </row>
     <row r="12" spans="1:63" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:63" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O13" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
+      <c r="O13" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
     </row>
     <row r="14" spans="1:63" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="BK8:BK9"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AL8:AP8"/>
     <mergeCell ref="O13:R13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -1814,6 +1805,15 @@
     <mergeCell ref="E2:T2"/>
     <mergeCell ref="E3:T3"/>
     <mergeCell ref="E5:T5"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AL8:AP8"/>
     <mergeCell ref="BF8:BJ8"/>
     <mergeCell ref="AG8:AK8"/>
     <mergeCell ref="AB8:AF8"/>
